--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-internal.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -148,7 +151,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -195,6 +198,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -243,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -277,6 +288,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,13 +312,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.5"/>
   </cols>
@@ -404,103 +419,115 @@
       <c r="N4" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="O4" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-internal.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -100,10 +100,7 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Assignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$NAME</t>
+    <t xml:space="preserve">$$NAME</t>
   </si>
   <si>
     <t xml:space="preserve">FALSE</t>
@@ -315,10 +312,10 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.5"/>
   </cols>
@@ -419,116 +416,108 @@
       <c r="N4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O7" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-internal.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-internal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -46,15 +49,15 @@
     <t xml:space="preserve">Modification Date</t>
   </si>
   <si>
-    <t xml:space="preserve">$INTERNAL_ENTRY</t>
+    <t xml:space="preserve">INTERNAL_ENTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">Internal Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">test.py</t>
   </si>
   <si>
@@ -100,7 +103,10 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
-    <t xml:space="preserve">$$NAME</t>
+    <t xml:space="preserve">Internal Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">FALSE</t>
@@ -115,7 +121,7 @@
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">$DOCUMENT</t>
+    <t xml:space="preserve">DOCUMENT</t>
   </si>
   <si>
     <t xml:space="preserve">Document</t>
@@ -127,7 +133,7 @@
     <t xml:space="preserve">{"custom_widget":"Word Processor"}</t>
   </si>
   <si>
-    <t xml:space="preserve">$ANNOTATIONS_STATE</t>
+    <t xml:space="preserve">ANNOTATIONS_STATE</t>
   </si>
   <si>
     <t xml:space="preserve">Annotations State</t>
@@ -309,13 +315,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O7"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="26.5"/>
   </cols>
@@ -341,44 +347,52 @@
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -396,15 +410,15 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -416,108 +430,128 @@
       <c r="N4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="J6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
